--- a/cw/3/Activities/07-Ins_Variance-SD-Zscore/Solved/Variance-SD-Zscore.xlsx
+++ b/cw/3/Activities/07-Ins_Variance-SD-Zscore/Solved/Variance-SD-Zscore.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joekaplan/git/DataViz-Lesson-Plans/01-Lesson-Plans/01-Excel/3/Activities/08-Ins_Variance-SD-Zscore/Solved/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kaboni/Desktop/RBootcamp/RBootcamp/cw/3/Activities/07-Ins_Variance-SD-Zscore/Solved/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A970A051-7AAD-1248-A73C-A78AED6D112C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E360F183-893F-0B40-BFD6-F8610C078E38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="45880" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26760" yWindow="-5000" windowWidth="25600" windowHeight="15540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variance Example" sheetId="1" r:id="rId1"/>
@@ -18,16 +18,15 @@
     <sheet name="Normal Distribution 68%" sheetId="3" r:id="rId3"/>
     <sheet name="Z-Score" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Standard Deviation'!$B$2:$B$13</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Standard Deviation'!$B$2:$B$13</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="28">
   <si>
     <t>Month</t>
   </si>
@@ -108,14 +107,26 @@
   <si>
     <t>Manaus Rainfall Z-Scores</t>
   </si>
+  <si>
+    <t>diff of B - mean</t>
+  </si>
+  <si>
+    <t>SqR of E</t>
+  </si>
+  <si>
+    <t>Average of square root ^</t>
+  </si>
+  <si>
+    <t>68-95-99.7</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
-    <numFmt numFmtId="172" formatCode="0.000"/>
-    <numFmt numFmtId="173" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -208,29 +219,31 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="173" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="173" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -2787,16 +2800,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="13" width="5.6640625" customWidth="1"/>
     <col min="14" max="14" width="4.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2811,8 +2829,12 @@
         <v>16</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="E1" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>25</v>
+      </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -2832,8 +2854,14 @@
         <v>10.511811023622048</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="E2" s="23">
+        <f>B2-$B$14</f>
+        <v>-0.57499999999999973</v>
+      </c>
+      <c r="F2" s="3">
+        <f>POWER(E2,2)</f>
+        <v>0.33062499999999967</v>
+      </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -2854,6 +2882,14 @@
         <v>10.275590551181102</v>
       </c>
       <c r="D3" s="3"/>
+      <c r="E3" s="23">
+        <f t="shared" ref="E3:E13" si="0">B3-$B$14</f>
+        <v>-0.67499999999999982</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F13" si="1">POWER(E3,2)</f>
+        <v>0.45562499999999978</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -2866,6 +2902,14 @@
         <v>11.614173228346457</v>
       </c>
       <c r="D4" s="3"/>
+      <c r="E4" s="23">
+        <f t="shared" si="0"/>
+        <v>0.12500000000000044</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5625000000000111E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -2878,6 +2922,14 @@
         <v>11.102362204724409</v>
       </c>
       <c r="D5" s="3"/>
+      <c r="E5" s="23">
+        <f t="shared" si="0"/>
+        <v>-0.17499999999999982</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="1"/>
+        <v>3.0624999999999937E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -2890,6 +2942,14 @@
         <v>8.2677165354330704</v>
       </c>
       <c r="D6" s="3"/>
+      <c r="E6" s="23">
+        <f t="shared" si="0"/>
+        <v>0.42500000000000027</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="1"/>
+        <v>0.18062500000000023</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -2902,6 +2962,14 @@
         <v>4.2913385826771657</v>
       </c>
       <c r="D7" s="3"/>
+      <c r="E7" s="23">
+        <f t="shared" si="0"/>
+        <v>0.32500000000000018</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.10562500000000012</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -2914,6 +2982,14 @@
         <v>2.9921259842519685</v>
       </c>
       <c r="D8" s="3"/>
+      <c r="E8" s="23">
+        <f t="shared" si="0"/>
+        <v>0.52499999999999991</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.2756249999999999</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -2926,6 +3002,14 @@
         <v>2.204724409448819</v>
       </c>
       <c r="D9" s="3"/>
+      <c r="E9" s="23">
+        <f t="shared" si="0"/>
+        <v>0.62500000000000044</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="1"/>
+        <v>0.39062500000000056</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -2938,6 +3022,14 @@
         <v>3.0314960629921264</v>
       </c>
       <c r="D10" s="3"/>
+      <c r="E10" s="23">
+        <f t="shared" si="0"/>
+        <v>0.22500000000000009</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="1"/>
+        <v>5.0625000000000038E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -2950,6 +3042,14 @@
         <v>4.9212598425196852</v>
       </c>
       <c r="D11" s="3"/>
+      <c r="E11" s="23">
+        <f t="shared" si="0"/>
+        <v>-0.17499999999999982</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="1"/>
+        <v>3.0624999999999937E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -2962,6 +3062,14 @@
         <v>6.4960629921259843</v>
       </c>
       <c r="D12" s="3"/>
+      <c r="E12" s="23">
+        <f t="shared" si="0"/>
+        <v>-0.37499999999999956</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="1"/>
+        <v>0.14062499999999967</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
@@ -2974,6 +3082,14 @@
         <v>8.7401574803149611</v>
       </c>
       <c r="D13" s="3"/>
+      <c r="E13" s="23">
+        <f t="shared" si="0"/>
+        <v>-0.27499999999999991</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="1"/>
+        <v>7.5624999999999956E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
@@ -2999,6 +3115,15 @@
       <c r="C15" s="12">
         <f>_xlfn.VAR.P(C2:C13)</f>
         <v>11.043287711575411</v>
+      </c>
+      <c r="F15" s="3">
+        <f>AVERAGE(F2:F13)</f>
+        <v>0.17354166666666668</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3011,7 +3136,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8059EBE5-0310-C848-B2D5-24C533C74289}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3255,7 +3382,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC96B052-8719-5B49-B651-F0C0E6F0D800}">
   <dimension ref="A1:E108"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3296,6 +3425,9 @@
       <c r="C3" s="18">
         <v>10.275590551181102</v>
       </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -4113,7 +4245,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2F82B8-EBB9-F84F-B4C6-BC6A69F8B770}">
   <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4377,7 +4511,10 @@
         <f>AVERAGE(B2:B13)</f>
         <v>3.5749999999999997</v>
       </c>
-      <c r="C14" s="13"/>
+      <c r="C14" s="13">
+        <f>SUM(C2:C13)</f>
+        <v>5.5511151231257827E-15</v>
+      </c>
       <c r="D14" s="13">
         <f>AVERAGE(D2:D13)</f>
         <v>7.0374015748031509</v>
